--- a/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>29582</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20844</v>
+        <v>19476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42720</v>
+        <v>44855</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04297394092671118</v>
+        <v>0.04297394092671119</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0302797416332481</v>
+        <v>0.02829279757038319</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06205924173748782</v>
+        <v>0.065161585100349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -762,19 +762,19 @@
         <v>23746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17484</v>
+        <v>17138</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32633</v>
+        <v>32355</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03248155628106809</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02391529014355857</v>
+        <v>0.02344283229283006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04463812938128611</v>
+        <v>0.04425808706042784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -783,19 +783,19 @@
         <v>53328</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40904</v>
+        <v>41776</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68469</v>
+        <v>68835</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03756994550768041</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02881731087086927</v>
+        <v>0.02943164806064153</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04823680607313007</v>
+        <v>0.04849472755441978</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2189</v>
+        <v>2148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13362</v>
+        <v>13018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008356608573002201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00317946157801961</v>
+        <v>0.003120539819408396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01941091190163264</v>
+        <v>0.01891090266280496</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>7588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4375</v>
+        <v>4042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13404</v>
+        <v>12739</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01037911860418488</v>
+        <v>0.01037911860418489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00598495133730003</v>
+        <v>0.00552943241479382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01833499614897766</v>
+        <v>0.01742587477271887</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -854,19 +854,19 @@
         <v>13340</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7595</v>
+        <v>7687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21496</v>
+        <v>22152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009398281682841297</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005350583864014439</v>
+        <v>0.005415766061752123</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01514394275793154</v>
+        <v>0.01560598396071007</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4583</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13050</v>
+        <v>14276</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006658364482166182</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001545967445423306</v>
+        <v>0.001530436844444229</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01895755898825626</v>
+        <v>0.0207390437345883</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>1537</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4098</v>
+        <v>4504</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002102485107581448</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0005245122811690427</v>
+        <v>0.0005298299454152595</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.005605987126014619</v>
+        <v>0.006161159895006027</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -925,19 +925,19 @@
         <v>6120</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1851</v>
+        <v>2335</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14514</v>
+        <v>13806</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004311905397659018</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001304266051726792</v>
+        <v>0.001645257094733877</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01022497768568332</v>
+        <v>0.009726593429280138</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>5251</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1890</v>
+        <v>1771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11756</v>
+        <v>11670</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007627641746977979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002745562210693221</v>
+        <v>0.002572131950931488</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01707772479934047</v>
+        <v>0.01695351288589045</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6648</v>
+        <v>7119</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002507601520509726</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009093247330745768</v>
+        <v>0.009737568297722932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -996,19 +996,19 @@
         <v>7084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3106</v>
+        <v>2952</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14600</v>
+        <v>13583</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004990617384687084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002187984729255076</v>
+        <v>0.002079702163701343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01028575154539177</v>
+        <v>0.009569447263538318</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>9591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2625</v>
+        <v>1763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27706</v>
+        <v>26910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01393238418724662</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003813053812045874</v>
+        <v>0.002561221983949774</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04024859928335333</v>
+        <v>0.03909271515261089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1046,19 +1046,19 @@
         <v>1771</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4747</v>
+        <v>4743</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002422111236279666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0007445239603148929</v>
+        <v>0.0007461516760626772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.006493107907619548</v>
+        <v>0.006488111972188293</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1067,19 +1067,19 @@
         <v>11361</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3997</v>
+        <v>4598</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28771</v>
+        <v>27423</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.00800413580525005</v>
+        <v>0.008004135805250051</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002816175882101365</v>
+        <v>0.003239146277037034</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02026945422694315</v>
+        <v>0.01931979924137557</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>633609</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>612830</v>
+        <v>613770</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>647677</v>
+        <v>648932</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9204510600838958</v>
+        <v>0.920451060083896</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8902656846361181</v>
+        <v>0.8916306664236816</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9408876936679825</v>
+        <v>0.9427111359998867</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1164</v>
@@ -1117,19 +1117,19 @@
         <v>694589</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>684709</v>
+        <v>684081</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>702586</v>
+        <v>702957</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9501071272503762</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9365930042761508</v>
+        <v>0.9357335313441487</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9610461857611142</v>
+        <v>0.961553799809223</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1844</v>
@@ -1138,19 +1138,19 @@
         <v>1328198</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1307047</v>
+        <v>1308309</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1346542</v>
+        <v>1345622</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9357251142218823</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9208242893075035</v>
+        <v>0.9217127858058353</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9486485091470753</v>
+        <v>0.9480004615125454</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>30365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19569</v>
+        <v>20263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44251</v>
+        <v>44724</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0289485532097756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01865593143383853</v>
+        <v>0.01931793074653363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04218700853651387</v>
+        <v>0.04263840520696027</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -1263,19 +1263,19 @@
         <v>42222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32012</v>
+        <v>32526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57948</v>
+        <v>57951</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03945385929193981</v>
+        <v>0.03945385929193982</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02991353926438831</v>
+        <v>0.03039430528570611</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05414929253036038</v>
+        <v>0.05415263871895933</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -1284,19 +1284,19 @@
         <v>72586</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58453</v>
+        <v>57112</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>93062</v>
+        <v>93921</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.03425383750310507</v>
+        <v>0.03425383750310506</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02758408587410309</v>
+        <v>0.02695132957691675</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0439167001335914</v>
+        <v>0.04432180782344853</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>17673</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9614</v>
+        <v>9357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31105</v>
+        <v>30898</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01684912505913513</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009166039746352647</v>
+        <v>0.008920836809012161</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02965392821935061</v>
+        <v>0.02945751862517288</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1334,19 +1334,19 @@
         <v>11148</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6076</v>
+        <v>6195</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19594</v>
+        <v>18236</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01041713509492733</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005677553000068773</v>
+        <v>0.005789313602563906</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01830958030031899</v>
+        <v>0.01704068355917506</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -1355,19 +1355,19 @@
         <v>28821</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18107</v>
+        <v>18191</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42728</v>
+        <v>43282</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01360090601010628</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008544756581753039</v>
+        <v>0.008584350920125081</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02016335879563113</v>
+        <v>0.02042492963776652</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>8400</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3543</v>
+        <v>3484</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17206</v>
+        <v>18559</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00800820236977774</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003378061232986152</v>
+        <v>0.003321660551543595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01640343689774481</v>
+        <v>0.01769371372812034</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1405,19 +1405,19 @@
         <v>8966</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4132</v>
+        <v>4413</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17837</v>
+        <v>19626</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.008378216372991906</v>
+        <v>0.008378216372991907</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003861203625713133</v>
+        <v>0.004124161362852544</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01666773940330517</v>
+        <v>0.01833963169538311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1426,19 +1426,19 @@
         <v>17366</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10338</v>
+        <v>10564</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29739</v>
+        <v>29230</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.008195063129874669</v>
+        <v>0.008195063129874667</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004878364056803655</v>
+        <v>0.004985283124828262</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01403400768557939</v>
+        <v>0.01379359793128294</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>22919</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11924</v>
+        <v>13160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39952</v>
+        <v>41580</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02184991927419199</v>
+        <v>0.02184991927419198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01136794283997218</v>
+        <v>0.0125458453929614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03808860510373589</v>
+        <v>0.03964119912480139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1476,19 +1476,19 @@
         <v>6143</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2404</v>
+        <v>2525</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13354</v>
+        <v>13938</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.005740170387682412</v>
+        <v>0.005740170387682413</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002246453391902139</v>
+        <v>0.002359943123761113</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01247908710565293</v>
+        <v>0.0130238796685525</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -1497,19 +1497,19 @@
         <v>29062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18220</v>
+        <v>17544</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47914</v>
+        <v>46253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01371433549694387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008598293903327206</v>
+        <v>0.008278946649604392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02261066528258741</v>
+        <v>0.02182701817253066</v>
       </c>
     </row>
     <row r="15">
@@ -1529,16 +1529,16 @@
         <v>3752</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26893</v>
+        <v>25162</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01017381708452813</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003577235690382099</v>
+        <v>0.003577183935772017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02563905186987829</v>
+        <v>0.023988358751366</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8958</v>
+        <v>10442</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002287544983951892</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.008370721115667449</v>
+        <v>0.009757190060210849</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -1568,19 +1568,19 @@
         <v>13120</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5273</v>
+        <v>4649</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>30155</v>
+        <v>29867</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.006191171059664263</v>
+        <v>0.006191171059664261</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00248830859693548</v>
+        <v>0.002193765339297066</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01423019495910086</v>
+        <v>0.01409439610630889</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>958889</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>934702</v>
+        <v>931600</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>979683</v>
+        <v>979322</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9141703830025915</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8911110261000202</v>
+        <v>0.8881545368923144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9339952422708615</v>
+        <v>0.9336507786037406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1416</v>
@@ -1618,19 +1618,19 @@
         <v>999224</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>979484</v>
+        <v>979667</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1012144</v>
+        <v>1012779</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9337230738685066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9152774860015491</v>
+        <v>0.9154485540178405</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9457966255923527</v>
+        <v>0.94638962102479</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2315</v>
@@ -1639,19 +1639,19 @@
         <v>1958113</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1925834</v>
+        <v>1928505</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1983477</v>
+        <v>1984632</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9240446868003059</v>
+        <v>0.9240446868003056</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9088122423842979</v>
+        <v>0.9100725240222945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9360143818240929</v>
+        <v>0.9365594104958447</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>31558</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17737</v>
+        <v>19745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50290</v>
+        <v>53633</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03935372895480101</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02211910726572909</v>
+        <v>0.02462253988478346</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06271394418235127</v>
+        <v>0.06688254590835177</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -1764,19 +1764,19 @@
         <v>25181</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15727</v>
+        <v>15856</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39828</v>
+        <v>39102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03100131330651695</v>
+        <v>0.03100131330651694</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01936230873957565</v>
+        <v>0.01952053236868618</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04903371014863368</v>
+        <v>0.04813931758708792</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>42</v>
@@ -1785,19 +1785,19 @@
         <v>56739</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>40714</v>
+        <v>40736</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79601</v>
+        <v>76515</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03515070796986886</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02522299137074267</v>
+        <v>0.02523673671045138</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04931451377873233</v>
+        <v>0.04740259172723209</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>25052</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15960</v>
+        <v>15944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38137</v>
+        <v>37360</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03124057807544491</v>
+        <v>0.03124057807544489</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01990234864445547</v>
+        <v>0.01988309770439109</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04755845396080732</v>
+        <v>0.04658947742532094</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1835,19 +1835,19 @@
         <v>6268</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2573</v>
+        <v>2690</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14869</v>
+        <v>14338</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.007716571122030531</v>
+        <v>0.007716571122030533</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003168187262881173</v>
+        <v>0.003311664899265788</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01830575869693321</v>
+        <v>0.01765162421413426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -1856,19 +1856,19 @@
         <v>31320</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21614</v>
+        <v>20702</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46079</v>
+        <v>45205</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01940305716672401</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01338999707856068</v>
+        <v>0.01282514762110937</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02854692750756859</v>
+        <v>0.02800512657726514</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>9358</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3560</v>
+        <v>3630</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21704</v>
+        <v>23246</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0116700549335872</v>
+        <v>0.01167005493358719</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00443902894287442</v>
+        <v>0.00452703488811831</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02706623103535589</v>
+        <v>0.02898869005373761</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1906,19 +1906,19 @@
         <v>8083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3355</v>
+        <v>3330</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17651</v>
+        <v>16539</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009950806590798247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00413104480574882</v>
+        <v>0.004100180003195173</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02173103605708691</v>
+        <v>0.02036183105057796</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -1927,19 +1927,19 @@
         <v>17441</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9226</v>
+        <v>8968</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30902</v>
+        <v>32071</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01080491158256918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005715514153536592</v>
+        <v>0.005555557929654265</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01914416007458972</v>
+        <v>0.01986853208870328</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>9747</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3702</v>
+        <v>3820</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25072</v>
+        <v>24181</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01215521748070254</v>
+        <v>0.01215521748070253</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004616609036978275</v>
+        <v>0.004763759527358172</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03126568380040922</v>
+        <v>0.03015469592791497</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1977,19 +1977,19 @@
         <v>6484</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16893</v>
+        <v>16408</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007982484043995004</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002846801866099812</v>
+        <v>0.002836754716383584</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02079742206682529</v>
+        <v>0.0202008238287769</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1998,19 +1998,19 @@
         <v>16231</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8395</v>
+        <v>7807</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32481</v>
+        <v>30581</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01005545533553046</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005200711964601952</v>
+        <v>0.004836800607903668</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02012259822802479</v>
+        <v>0.01894576857632152</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>4550</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14325</v>
+        <v>15670</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005674009682865282</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001172047125679849</v>
+        <v>0.001162169745326986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01786400312302451</v>
+        <v>0.01954079316058408</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2048,19 +2048,19 @@
         <v>8007</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2767</v>
+        <v>3006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18229</v>
+        <v>19711</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009857485369910997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003406124874374657</v>
+        <v>0.003701397358776234</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02244254381479623</v>
+        <v>0.0242674949083492</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2069,19 +2069,19 @@
         <v>12557</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5886</v>
+        <v>5795</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25684</v>
+        <v>25710</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007779177438282108</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003646249525889249</v>
+        <v>0.003590132313234728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01591162509854925</v>
+        <v>0.01592813770344834</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>721630</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>695575</v>
+        <v>697728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>741648</v>
+        <v>740924</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8999064108725993</v>
+        <v>0.899906410872599</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8674140795998818</v>
+        <v>0.8700991287917371</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9248689862515287</v>
+        <v>0.9239664974481592</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>998</v>
@@ -2119,19 +2119,19 @@
         <v>758237</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>738992</v>
+        <v>740472</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>772059</v>
+        <v>772741</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9334913395667482</v>
+        <v>0.9334913395667483</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9097983792414763</v>
+        <v>0.9116202698703871</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9505080357189873</v>
+        <v>0.9513485138283373</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1618</v>
@@ -2140,19 +2140,19 @@
         <v>1479867</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1450555</v>
+        <v>1452337</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1505422</v>
+        <v>1504735</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9168066905070253</v>
+        <v>0.9168066905070255</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8986475012178281</v>
+        <v>0.8997513066565718</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9326382443341347</v>
+        <v>0.9322126054723534</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>27760</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18671</v>
+        <v>17792</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42106</v>
+        <v>41994</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02824656696356566</v>
+        <v>0.02824656696356567</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01899762527533365</v>
+        <v>0.01810328531550967</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0428433884274346</v>
+        <v>0.04272928406483427</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2265,19 +2265,19 @@
         <v>34431</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24903</v>
+        <v>24497</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47171</v>
+        <v>46254</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0308906992645295</v>
+        <v>0.03089069926452951</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02234261554563269</v>
+        <v>0.02197868556335347</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04232094041803072</v>
+        <v>0.04149880783498427</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>76</v>
@@ -2286,19 +2286,19 @@
         <v>62191</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48891</v>
+        <v>48345</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81666</v>
+        <v>80697</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02965172130054002</v>
+        <v>0.02965172130054001</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02331049534620262</v>
+        <v>0.02305009963239051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03893737131367635</v>
+        <v>0.03847518509978815</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>11831</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6150</v>
+        <v>6112</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21604</v>
+        <v>22916</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01203867005014324</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0062573473123184</v>
+        <v>0.006218947084293631</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02198259840757938</v>
+        <v>0.02331725702467332</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -2336,19 +2336,19 @@
         <v>12656</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7558</v>
+        <v>7832</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19789</v>
+        <v>19239</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01135489159154648</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006781158067515951</v>
+        <v>0.007027008376088689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01775420298928646</v>
+        <v>0.01726077601057545</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -2357,19 +2357,19 @@
         <v>24488</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16036</v>
+        <v>17150</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36195</v>
+        <v>36663</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01167529403212908</v>
+        <v>0.01167529403212907</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007645825044121785</v>
+        <v>0.008176649586964159</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0172574258187464</v>
+        <v>0.01748032597419441</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>20265</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10968</v>
+        <v>11075</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>35779</v>
+        <v>35160</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0206196326690336</v>
+        <v>0.02061963266903361</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01115982979997687</v>
+        <v>0.0112692132713215</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03640546654851033</v>
+        <v>0.0357763016595869</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -2407,19 +2407,19 @@
         <v>7358</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3557</v>
+        <v>3919</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12743</v>
+        <v>12684</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.006601392277711634</v>
+        <v>0.006601392277711635</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.003191600520878424</v>
+        <v>0.00351564859998056</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01143239740515288</v>
+        <v>0.01137955397883837</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>26</v>
@@ -2428,19 +2428,19 @@
         <v>27622</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>18038</v>
+        <v>17903</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>43830</v>
+        <v>46773</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.01317000873174617</v>
+        <v>0.01317000873174616</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.008600098550482395</v>
+        <v>0.008535753842846468</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02089734924474599</v>
+        <v>0.02230061589541712</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>6877</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2248</v>
+        <v>2721</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18951</v>
+        <v>18395</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.006997350965439304</v>
+        <v>0.006997350965439306</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002287595140762915</v>
+        <v>0.002768162677383454</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01928281619568822</v>
+        <v>0.01871727351141021</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2478,19 +2478,19 @@
         <v>11825</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5276</v>
+        <v>5384</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21835</v>
+        <v>22927</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01060892523351476</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004733635604419899</v>
+        <v>0.004830123508912347</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01959019079064165</v>
+        <v>0.02057014088788869</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -2499,19 +2499,19 @@
         <v>18702</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10966</v>
+        <v>10190</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>33356</v>
+        <v>32140</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.008916626806607058</v>
+        <v>0.008916626806607056</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005228643779202694</v>
+        <v>0.00485861226507125</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01590377737793867</v>
+        <v>0.01532400147442006</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>7482</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22659</v>
+        <v>22328</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.007613450416448143</v>
+        <v>0.007613450416448145</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00133579964325243</v>
+        <v>0.001329715212831498</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02305584422992623</v>
+        <v>0.02271918611411555</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2549,19 +2549,19 @@
         <v>7497</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2650</v>
+        <v>3161</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17249</v>
+        <v>18608</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006726561418826043</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002377460354851914</v>
+        <v>0.002835618551680334</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01547528706999923</v>
+        <v>0.01669437660969871</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -2570,19 +2570,19 @@
         <v>14980</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5964</v>
+        <v>6788</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29965</v>
+        <v>29745</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.007142136662227426</v>
+        <v>0.007142136662227424</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002843636354110397</v>
+        <v>0.003236507478708037</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01428708273720565</v>
+        <v>0.01418204968795369</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>908567</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>886652</v>
+        <v>884841</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>927192</v>
+        <v>925760</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9244843289353701</v>
+        <v>0.9244843289353704</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9021854161082978</v>
+        <v>0.9003426575717293</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9434363871025624</v>
+        <v>0.9419794743777308</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1463</v>
@@ -2620,19 +2620,19 @@
         <v>1040830</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1022958</v>
+        <v>1024415</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1055490</v>
+        <v>1056032</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9338175302138717</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9177828252584959</v>
+        <v>0.9190902221416056</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9469696512978139</v>
+        <v>0.9474564275017815</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2398</v>
@@ -2641,19 +2641,19 @@
         <v>1949397</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1920469</v>
+        <v>1921203</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1974181</v>
+        <v>1973024</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9294442124667502</v>
+        <v>0.9294442124667501</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9156516485596617</v>
+        <v>0.9160020318789908</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9412607656761707</v>
+        <v>0.9407095210247487</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>119264</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>96831</v>
+        <v>97749</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>146575</v>
+        <v>149659</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03386302653573871</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02749338888032912</v>
+        <v>0.0277540707250759</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04161740956783815</v>
+        <v>0.04249297716424614</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>189</v>
@@ -2766,19 +2766,19 @@
         <v>125579</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>106411</v>
+        <v>105448</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>151674</v>
+        <v>148770</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03368483498204049</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02854322494681235</v>
+        <v>0.02828474557801645</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04068427844400415</v>
+        <v>0.03990549249431053</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>295</v>
@@ -2787,19 +2787,19 @@
         <v>244844</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>212478</v>
+        <v>213810</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>282054</v>
+        <v>280492</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03377139790818488</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02930724158845908</v>
+        <v>0.02949084839665234</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03890384938032877</v>
+        <v>0.03868833713890615</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>60309</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>44819</v>
+        <v>44640</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>77629</v>
+        <v>82753</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01712363876307875</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01272549472314462</v>
+        <v>0.01267479907429431</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02204140648165157</v>
+        <v>0.02349631332888803</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>52</v>
@@ -2837,19 +2837,19 @@
         <v>37660</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>27952</v>
+        <v>28114</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>50742</v>
+        <v>51645</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.01010165577611301</v>
+        <v>0.01010165577611302</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.007497842465579043</v>
+        <v>0.007541077388017898</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0136108923756156</v>
+        <v>0.01385309500157744</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>104</v>
@@ -2858,19 +2858,19 @@
         <v>97968</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>80427</v>
+        <v>79834</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>119907</v>
+        <v>119039</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01351283538632795</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01109330046806389</v>
+        <v>0.01101160568401272</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01653879756404172</v>
+        <v>0.01641916424784856</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>42606</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01209726462553055</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -2908,19 +2908,19 @@
         <v>25944</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>61</v>
@@ -2929,19 +2929,19 @@
         <v>68550</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>44793</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29217</v>
+        <v>28709</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>68294</v>
+        <v>65218</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01271832407804138</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.008295649945633509</v>
+        <v>0.008151494393740929</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0193907517291727</v>
+        <v>0.0185175710573716</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>24</v>
@@ -2979,19 +2979,19 @@
         <v>26285</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16893</v>
+        <v>16753</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>41594</v>
+        <v>41507</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.007050452020421275</v>
+        <v>0.007050452020421276</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004531260659316507</v>
+        <v>0.004493854878986525</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01115687047080448</v>
+        <v>0.01113376340782975</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>53</v>
@@ -3000,19 +3000,19 @@
         <v>71078</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>51750</v>
+        <v>51410</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>98443</v>
+        <v>95871</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.00980382377198331</v>
+        <v>0.009803823771983314</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00713787556813194</v>
+        <v>0.007090947739515093</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01357824149332546</v>
+        <v>0.01322351697377141</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>32294</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17982</v>
+        <v>18127</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>57094</v>
+        <v>57997</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.009169440251695705</v>
+        <v>0.009169440251695703</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005105800481498174</v>
+        <v>0.005146932037994727</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01621088949338055</v>
+        <v>0.01646712698990959</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>17</v>
@@ -3050,19 +3050,19 @@
         <v>19723</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11153</v>
+        <v>11513</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>33461</v>
+        <v>34094</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.005290396426473476</v>
+        <v>0.005290396426473477</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002991572811419531</v>
+        <v>0.003088294201630887</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.008975483760887401</v>
+        <v>0.009145293971909397</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>32</v>
@@ -3071,19 +3071,19 @@
         <v>52017</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>33662</v>
+        <v>34730</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>77879</v>
+        <v>77228</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.007174780827331435</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004643007347289781</v>
+        <v>0.004790352013100129</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01074182551076692</v>
+        <v>0.01065211906708205</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>3222696</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3177918</v>
+        <v>3179455</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3262551</v>
+        <v>3262173</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.915028305745915</v>
+        <v>0.9150283057459149</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9023144996264721</v>
+        <v>0.9027507399969936</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9263445806748076</v>
+        <v>0.9262371414015533</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5041</v>
@@ -3121,19 +3121,19 @@
         <v>3492880</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3459945</v>
+        <v>3457653</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3520586</v>
+        <v>3518713</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.9369136921660387</v>
+        <v>0.9369136921660389</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9280793603029973</v>
+        <v>0.9274647010723142</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9443455905203668</v>
+        <v>0.9438430141930573</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8175</v>
@@ -3142,19 +3142,19 @@
         <v>6715575</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6663150</v>
+        <v>6665047</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6763408</v>
+        <v>6771398</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.9262820822551951</v>
+        <v>0.9262820822551953</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.919051066383454</v>
+        <v>0.9193127436476685</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9328797280382606</v>
+        <v>0.9339818673151089</v>
       </c>
     </row>
     <row r="38">
